--- a/table.xlsx
+++ b/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Дата</t>
   </si>
@@ -58,25 +58,31 @@
     <t>Остаток ПЛ</t>
   </si>
   <si>
-    <t>55.33.33</t>
-  </si>
-  <si>
-    <t>Крякиш</t>
-  </si>
-  <si>
-    <t>21.11.2021</t>
-  </si>
-  <si>
-    <t>Иван Евген</t>
+    <t>17.06.2021</t>
+  </si>
+  <si>
+    <t>Ivan Evgenievich</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>трындекалейшен 1488</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Юшин И.Е</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Иван Евгеньевич</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
@@ -494,75 +500,89 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-    </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
